--- a/target/test-classes/testdata/AddLocations.xlsx
+++ b/target/test-classes/testdata/AddLocations.xlsx
@@ -54,25 +54,25 @@
     <t>Ankara</t>
   </si>
   <si>
-    <t>Georgi</t>
-  </si>
-  <si>
     <t>Tbilisi</t>
   </si>
   <si>
-    <t>APII</t>
-  </si>
-  <si>
-    <t>KLDOO</t>
-  </si>
-  <si>
-    <t>FDSPP</t>
-  </si>
-  <si>
-    <t>BDDNN</t>
-  </si>
-  <si>
-    <t>WJDM</t>
+    <t>DAS</t>
+  </si>
+  <si>
+    <t>KRAS</t>
+  </si>
+  <si>
+    <t>TATA</t>
+  </si>
+  <si>
+    <t>TUTU</t>
+  </si>
+  <si>
+    <t>PAPA</t>
+  </si>
+  <si>
+    <t>Georgia</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -441,7 +441,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -497,13 +497,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
       </c>
       <c r="D6">
         <v>45789</v>
